--- a/openEAR-0.1.0 Kopie/SmileArchiv/Archive_File_0001.xlsx
+++ b/openEAR-0.1.0 Kopie/SmileArchiv/Archive_File_0001.xlsx
@@ -88,7 +88,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -446,7 +446,7 @@
     <col min="2" max="2" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -462,7 +462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -470,7 +470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -478,7 +478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -486,7 +486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -494,7 +494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -502,7 +502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -510,7 +510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -518,7 +518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -526,7 +526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -534,7 +534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -542,7 +542,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -550,7 +550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -558,7 +558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -566,7 +566,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -574,7 +574,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -582,7 +582,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -590,7 +590,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1">
         <v>0</v>
       </c>
